--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCBBE51-2E33-8543-AEA8-08CDB4984150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1634C998-9639-474C-BCDA-B8CC523163F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-220" yWindow="-21140" windowWidth="27900" windowHeight="16940" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,10 +35,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>罹患者</t>
+    <rPh sb="0" eb="3">
+      <t>リカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <rPh sb="0" eb="2">
+      <t>タイイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +84,56 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -76,11 +142,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -98,6 +176,940 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="covid-19-kyoto"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>date</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>退院日</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>43860</v>
+          </cell>
+          <cell r="J2">
+            <v>43872</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>43866</v>
+          </cell>
+          <cell r="J3">
+            <v>43869</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>43893</v>
+          </cell>
+          <cell r="J4">
+            <v>43901</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>43894</v>
+          </cell>
+          <cell r="J5">
+            <v>43899</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>43894</v>
+          </cell>
+          <cell r="J6">
+            <v>43914</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>43895</v>
+          </cell>
+          <cell r="J7">
+            <v>43904</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>43896</v>
+          </cell>
+          <cell r="J8">
+            <v>43915</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>43897</v>
+          </cell>
+          <cell r="J9">
+            <v>43910</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>43899</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>43899</v>
+          </cell>
+          <cell r="J11">
+            <v>43915</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>43899</v>
+          </cell>
+          <cell r="J12">
+            <v>43906</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>43899</v>
+          </cell>
+          <cell r="J13">
+            <v>43903</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>43900</v>
+          </cell>
+          <cell r="J14">
+            <v>43916</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>43901</v>
+          </cell>
+          <cell r="J15">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>43901</v>
+          </cell>
+          <cell r="J16">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>43902</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>43902</v>
+          </cell>
+          <cell r="J18">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>43907</v>
+          </cell>
+          <cell r="J19">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>43907</v>
+          </cell>
+          <cell r="J20">
+            <v>43912</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>43908</v>
+          </cell>
+          <cell r="J21">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>43908</v>
+          </cell>
+          <cell r="J22">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>43910</v>
+          </cell>
+          <cell r="J23">
+            <v>43917</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>43911</v>
+          </cell>
+          <cell r="J24">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>43912</v>
+          </cell>
+          <cell r="J25">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>43913</v>
+          </cell>
+          <cell r="J26">
+            <v>43916</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>43914</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>43914</v>
+          </cell>
+          <cell r="J28">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>43915</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>43915</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>43915</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>43915</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>43916</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>43916</v>
+          </cell>
+          <cell r="J34">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>43916</v>
+          </cell>
+          <cell r="J35">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>43917</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>43918</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>43918</v>
+          </cell>
+          <cell r="J38">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>43918</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>43918</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>43918</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>43919</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>43920</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>43920</v>
+          </cell>
+          <cell r="J57">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>43921</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>43923</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106">
+            <v>43924</v>
+          </cell>
+          <cell r="J106">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107">
+            <v>43924</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117">
+            <v>43925</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="C120">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="C122">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126">
+            <v>43926</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134">
+            <v>43927</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="C137">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146">
+            <v>43928</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="C147">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="C150">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156">
+            <v>43929</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="C164">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165">
+            <v>43930</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166">
+            <v>43930</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B079154-C316-5C44-A0DC-457EF6001A57}">
-  <dimension ref="A2:B87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -408,438 +1420,1144 @@
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(L10,A2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(B:B)</f>
+        <v>163</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM(C:C)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A5)</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A7)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A10)</f>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A11)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A12)</f>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A13)</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A16)</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A18)</f>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A19)</f>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A21)</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A22)</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A23)</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A24)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A25)</f>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A26)</f>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A27)</f>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A28)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A29)</f>
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A30)</f>
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A31)</f>
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A32)</f>
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A33)</f>
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A34)</f>
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A35)</f>
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A35)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A36)</f>
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A37)</f>
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A38)</f>
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A39)</f>
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A40)</f>
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A40)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A41)</f>
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A42)</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A43)</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A44)</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A47)</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A49)</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A50)</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A51)</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A52)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A54)</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A55)</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A56)</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A57)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A59)</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A61)</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A62)</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A63)</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A64)</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A65)</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A66)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A67)</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A68)</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A69)</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A70)</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A71)</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A72)</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A73)</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A74)</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A75)</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A76)</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A77)</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A78)</f>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A79)</f>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A80)</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A81)</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A82)</f>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A83)</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A84)</f>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A85)</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A86)</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>43976</v>
+      </c>
+      <c r="B87">
+        <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A87)</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A87)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1634C998-9639-474C-BCDA-B8CC523163F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F61830F-1F34-2C4F-8F61-0E2BDB9E0FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="-21140" windowWidth="27900" windowHeight="16940" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
       <sheetName val="covid-19-kyoto"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="C1" t="str">
             <v>date</v>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B079154-C316-5C44-A0DC-457EF6001A57}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="O115" sqref="O115"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1446,13 +1446,13 @@
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="e">
         <f>SUM(B:B)</f>
-        <v>163</v>
-      </c>
-      <c r="F2" s="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="5" t="e">
         <f>SUM(C:C)</f>
-        <v>27</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1966,13 +1966,13 @@
       <c r="A42" s="1">
         <v>43931</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="e">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A42)</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="e">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A42)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:3">

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F61830F-1F34-2C4F-8F61-0E2BDB9E0FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B9A8F3-334C-484B-A440-E49C54EF64BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
+    <workbookView xWindow="11380" yWindow="-21140" windowWidth="40960" windowHeight="21140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +74,11 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -185,7 +193,7 @@
       <sheetName val="covid-19-kyoto"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="C1" t="str">
             <v>date</v>
@@ -464,6 +472,9 @@
           <cell r="C39">
             <v>43918</v>
           </cell>
+          <cell r="J39">
+            <v>43931</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="C40">
@@ -519,6 +530,9 @@
           <cell r="C50">
             <v>43920</v>
           </cell>
+          <cell r="J50">
+            <v>43931</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="C51">
@@ -572,6 +586,9 @@
           <cell r="C60">
             <v>43921</v>
           </cell>
+          <cell r="J60">
+            <v>43931</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="C61">
@@ -752,6 +769,9 @@
           <cell r="C96">
             <v>43924</v>
           </cell>
+          <cell r="J96">
+            <v>43931</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="C97">
@@ -1104,6 +1124,86 @@
         <row r="166">
           <cell r="C166">
             <v>43930</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="C168">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="C171">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="C172">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="C173">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="C174">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="C175">
+            <v>43931</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="C176">
+            <v>43932</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="C177">
+            <v>43932</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178">
+            <v>43932</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="C179">
+            <v>43932</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="C180">
+            <v>43932</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="C181">
+            <v>43932</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="C182">
+            <v>43932</v>
           </cell>
         </row>
       </sheetData>
@@ -1411,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B079154-C316-5C44-A0DC-457EF6001A57}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1446,13 +1546,13 @@
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="e">
+      <c r="E2" s="4">
         <f>SUM(B:B)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="5" t="e">
+        <v>179</v>
+      </c>
+      <c r="F2" s="5">
         <f>SUM(C:C)</f>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1963,25 +2063,25 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>43931</v>
       </c>
-      <c r="B42" t="e">
+      <c r="B42">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" t="e">
+        <v>9</v>
+      </c>
+      <c r="C42">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A42)</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="6">
         <v>43932</v>
       </c>
       <c r="B43">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A43)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A43)</f>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B9A8F3-334C-484B-A440-E49C54EF64BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EFFEC7-4FD5-9842-8EDE-C0E380967B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="-21140" windowWidth="40960" windowHeight="21140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
+    <workbookView xWindow="25620" yWindow="-17220" windowWidth="38400" windowHeight="21140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1204,6 +1204,66 @@
         <row r="182">
           <cell r="C182">
             <v>43932</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="C183">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="C184">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="C185">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="C186">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="C187">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="C189">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="C190">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="C191">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="C192">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="C193">
+            <v>43933</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="C194">
+            <v>43933</v>
           </cell>
         </row>
       </sheetData>
@@ -1512,7 +1572,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1548,7 +1608,7 @@
       </c>
       <c r="E2" s="4">
         <f>SUM(B:B)</f>
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(C:C)</f>
@@ -2094,7 +2154,7 @@
       </c>
       <c r="B44">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A44)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A44)</f>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EFFEC7-4FD5-9842-8EDE-C0E380967B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D5E9C-D4CE-6E42-A35B-4788C980DAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="-17220" windowWidth="38400" windowHeight="21140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,6 +433,9 @@
           <cell r="C33">
             <v>43916</v>
           </cell>
+          <cell r="J33">
+            <v>43934</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="C34">
@@ -485,6 +488,9 @@
           <cell r="C41">
             <v>43918</v>
           </cell>
+          <cell r="J41">
+            <v>43934</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="C42">
@@ -1264,6 +1270,31 @@
         <row r="194">
           <cell r="C194">
             <v>43933</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="C195">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="C196">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="C197">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="C198">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="C199">
+            <v>43934</v>
           </cell>
         </row>
       </sheetData>
@@ -1571,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B079154-C316-5C44-A0DC-457EF6001A57}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1608,11 +1639,11 @@
       </c>
       <c r="E2" s="4">
         <f>SUM(B:B)</f>
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(C:C)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2167,11 +2198,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A45)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D5E9C-D4CE-6E42-A35B-4788C980DAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A4632-CF82-A947-8668-6108B305E81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
+    <workbookView xWindow="4700" yWindow="-21140" windowWidth="40960" windowHeight="21140" xr2:uid="{2DEEA573-2876-E842-A6FA-5A220D1C9C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,6 +531,9 @@
           <cell r="C49">
             <v>43920</v>
           </cell>
+          <cell r="J49">
+            <v>43935</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="C50">
@@ -564,6 +567,9 @@
           <cell r="C55">
             <v>43920</v>
           </cell>
+          <cell r="J55">
+            <v>43935</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="C56">
@@ -1295,6 +1301,66 @@
         <row r="199">
           <cell r="C199">
             <v>43934</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="C200">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="C202">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="C203">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="C204">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="C205">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="C206">
+            <v>43934</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="C207">
+            <v>43935</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="C208">
+            <v>43935</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="C209">
+            <v>43935</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="C210">
+            <v>43935</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="C211">
+            <v>43935</v>
           </cell>
         </row>
       </sheetData>
@@ -1639,11 +1705,11 @@
       </c>
       <c r="E2" s="4">
         <f>SUM(B:B)</f>
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(C:C)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2198,7 +2264,7 @@
       </c>
       <c r="B45">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A45)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A45)</f>
@@ -2211,11 +2277,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF('[1]covid-19-kyoto'!$C:$C,A46)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <f>COUNTIF('[1]covid-19-kyoto'!$J:$J,A46)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
